--- a/data/trans_orig/P02E$contratada-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P02E$contratada-Habitat-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6892</v>
+        <v>6274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01570552263158211</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05251754417002021</v>
+        <v>0.04781104732943529</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7947</v>
+        <v>7729</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01059608440291511</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0361289023182839</v>
+        <v>0.03513555296422572</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -785,19 +785,19 @@
         <v>4392</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1118</v>
+        <v>1136</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9977</v>
+        <v>10830</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01250523289994574</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00318248764920054</v>
+        <v>0.003233428139648408</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02840785170194743</v>
+        <v>0.03083677029767534</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>114268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105197</v>
+        <v>104805</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>121213</v>
+        <v>121338</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8707730705094313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8016478867321346</v>
+        <v>0.7986623229578121</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9236953483616189</v>
+        <v>0.9246512504115793</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -835,19 +835,19 @@
         <v>197033</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>186691</v>
+        <v>186547</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>205072</v>
+        <v>204953</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8957162406152033</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8487008983784543</v>
+        <v>0.8480459068775353</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9322589202115603</v>
+        <v>0.9317189464170769</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>303</v>
@@ -856,19 +856,19 @@
         <v>311302</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>297748</v>
+        <v>298393</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>322746</v>
+        <v>323456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8863961914067725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.84780301471746</v>
+        <v>0.8496389787943436</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9189799813703836</v>
+        <v>0.921000876134219</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>13928</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7934</v>
+        <v>7243</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23090</v>
+        <v>23269</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1061369580644432</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06045763921706501</v>
+        <v>0.05519811618733027</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1759542679253356</v>
+        <v>0.1773210091963028</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -906,19 +906,19 @@
         <v>18566</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11452</v>
+        <v>11857</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28356</v>
+        <v>27584</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.084399157113587</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05206152213495151</v>
+        <v>0.05389992016035691</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1289049328521231</v>
+        <v>0.1253954069158925</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -927,19 +927,19 @@
         <v>32494</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22277</v>
+        <v>21863</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45029</v>
+        <v>45583</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09252151580680584</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06343036500940383</v>
+        <v>0.06225287560666783</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1282134817004711</v>
+        <v>0.1297913669441728</v>
       </c>
     </row>
     <row r="7">
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4883</v>
+        <v>5370</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00738444879454343</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03721131100521703</v>
+        <v>0.04092102793876308</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6278</v>
+        <v>7287</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009288517868294641</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02853968891198026</v>
+        <v>0.03312668321036183</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -998,19 +998,19 @@
         <v>3012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8209</v>
+        <v>8162</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008577059886475964</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00275196868924342</v>
+        <v>0.002738113831009307</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02337342656507761</v>
+        <v>0.02323897596756315</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>4696</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12632</v>
+        <v>13184</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02385405769754274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005330388129603955</v>
+        <v>0.005402492049161816</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06416739984649526</v>
+        <v>0.06697494896819148</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1052,19 +1052,19 @@
         <v>7328</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2878</v>
+        <v>2525</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16276</v>
+        <v>14821</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02394108828342451</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009401942485349838</v>
+        <v>0.008248936085548232</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05317416429828448</v>
+        <v>0.04842173126901865</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -1073,19 +1073,19 @@
         <v>12024</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6126</v>
+        <v>6311</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22140</v>
+        <v>22220</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02390702341542464</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01217986718900282</v>
+        <v>0.01254767920380084</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04402120000570711</v>
+        <v>0.04418074556233614</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>179191</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>168946</v>
+        <v>169178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>186607</v>
+        <v>186899</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9102578729061651</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8582179283372204</v>
+        <v>0.859393449367819</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9479298762832296</v>
+        <v>0.9494132047289813</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>261</v>
@@ -1123,19 +1123,19 @@
         <v>278492</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>265918</v>
+        <v>266389</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>288491</v>
+        <v>287802</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9098565487141587</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8687789809562012</v>
+        <v>0.8703173840091177</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9425266883691972</v>
+        <v>0.9402746971485172</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>425</v>
@@ -1144,19 +1144,19 @@
         <v>457681</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>442863</v>
+        <v>443088</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>470055</v>
+        <v>468786</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9100136320600576</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8805501268790765</v>
+        <v>0.8809972358731415</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9346165556168892</v>
+        <v>0.9320921788844329</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>12971</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7438</v>
+        <v>6855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21179</v>
+        <v>21004</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06588806939629219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03778238837704</v>
+        <v>0.03482134743451443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.10758804069035</v>
+        <v>0.1066961158267536</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1194,19 +1194,19 @@
         <v>20263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12459</v>
+        <v>12474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31003</v>
+        <v>31158</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06620236300241684</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04070548097089787</v>
+        <v>0.04075458895601244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1012896782735517</v>
+        <v>0.1017963489919266</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1215,19 +1215,19 @@
         <v>33234</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23629</v>
+        <v>23165</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47013</v>
+        <v>45188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06607934452451779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04698176359548839</v>
+        <v>0.04605882004988517</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09347672701138152</v>
+        <v>0.08984714536247096</v>
       </c>
     </row>
     <row r="11">
@@ -1308,19 +1308,19 @@
         <v>3148</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9506</v>
+        <v>8324</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01593264064388145</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004941917718637428</v>
+        <v>0.004894524370442551</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04811053078475753</v>
+        <v>0.04212973694678918</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1329,19 +1329,19 @@
         <v>3148</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9210</v>
+        <v>10215</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009676735883048113</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00298919099442856</v>
+        <v>0.002992544731838751</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02831077958605402</v>
+        <v>0.03139881455503514</v>
       </c>
     </row>
     <row r="13">
@@ -1358,19 +1358,19 @@
         <v>114723</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106829</v>
+        <v>107198</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120408</v>
+        <v>120013</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8981100366901782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8363118163072858</v>
+        <v>0.8392047120410401</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9426147516058138</v>
+        <v>0.9395266732745935</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>176</v>
@@ -1379,19 +1379,19 @@
         <v>178767</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>168746</v>
+        <v>169515</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>185059</v>
+        <v>185961</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9047462400617392</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.854029901263031</v>
+        <v>0.8579191594469642</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9365888971033492</v>
+        <v>0.9411567201909596</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>284</v>
@@ -1400,19 +1400,19 @@
         <v>293490</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>280432</v>
+        <v>282392</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>303198</v>
+        <v>303534</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9021405542125482</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8620017378192144</v>
+        <v>0.8680291838538147</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9319806846645747</v>
+        <v>0.9330156863942027</v>
       </c>
     </row>
     <row r="14">
@@ -1429,19 +1429,19 @@
         <v>13015</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7330</v>
+        <v>7725</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20909</v>
+        <v>20540</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1018899633098218</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05738524839418635</v>
+        <v>0.06047332672540646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1636881836927142</v>
+        <v>0.16079528795896</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1450,19 +1450,19 @@
         <v>14776</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8989</v>
+        <v>8532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24156</v>
+        <v>22867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07478058589684201</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04549502544125515</v>
+        <v>0.04317999822817043</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1222542996820643</v>
+        <v>0.1157331754494512</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -1471,19 +1471,19 @@
         <v>27791</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18379</v>
+        <v>18464</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39381</v>
+        <v>38781</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08542500366862023</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05649500231193852</v>
+        <v>0.0567561840715843</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.121051544401505</v>
+        <v>0.1192068727935085</v>
       </c>
     </row>
     <row r="15">
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3894</v>
+        <v>4599</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.004540533397537383</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01970672958995986</v>
+        <v>0.02327721411784403</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4504</v>
+        <v>4568</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002757706235783427</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01384503173176605</v>
+        <v>0.0140420263443234</v>
       </c>
     </row>
     <row r="16">
@@ -1567,19 +1567,19 @@
         <v>4299</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9384</v>
+        <v>10378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0252334824719353</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009917538918365866</v>
+        <v>0.009879180967825982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0550774918972716</v>
+        <v>0.06091611219072948</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1588,19 +1588,19 @@
         <v>4918</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1240</v>
+        <v>1630</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13312</v>
+        <v>12302</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01742987040579061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004394091178573215</v>
+        <v>0.005776130168101514</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04717634336255348</v>
+        <v>0.04359685506211605</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1609,19 +1609,19 @@
         <v>9217</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4747</v>
+        <v>4458</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17864</v>
+        <v>16918</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02036777414394074</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01049060106952178</v>
+        <v>0.009851631172607817</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03947509648522828</v>
+        <v>0.03738425835893535</v>
       </c>
     </row>
     <row r="17">
@@ -1638,19 +1638,19 @@
         <v>153698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145657</v>
+        <v>144329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>160120</v>
+        <v>159734</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9021247088197506</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8549322341849759</v>
+        <v>0.8471338411886697</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9398194420109829</v>
+        <v>0.937557252929423</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>258</v>
@@ -1659,19 +1659,19 @@
         <v>267758</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>258132</v>
+        <v>258651</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>273837</v>
+        <v>273883</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9489296231694454</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9148155525980133</v>
+        <v>0.9166552291440532</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9704752884855621</v>
+        <v>0.9706386773936175</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>414</v>
@@ -1680,19 +1680,19 @@
         <v>421455</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>408473</v>
+        <v>408735</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>430411</v>
+        <v>430804</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9313085098098599</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9026212901292557</v>
+        <v>0.9032003904865472</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9510990810168248</v>
+        <v>0.9519667342078666</v>
       </c>
     </row>
     <row r="18">
@@ -1709,19 +1709,19 @@
         <v>11486</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6502</v>
+        <v>6321</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18849</v>
+        <v>18871</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06741879415498581</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0381604430066892</v>
+        <v>0.03709928494020225</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.110634842540842</v>
+        <v>0.1107641543053369</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1733,16 +1733,16 @@
         <v>3203</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14760</v>
+        <v>15086</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02691975821611225</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01135109334732281</v>
+        <v>0.0113496568306706</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05230878002726878</v>
+        <v>0.05346633273710871</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -1751,19 +1751,19 @@
         <v>19082</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12615</v>
+        <v>11864</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29407</v>
+        <v>28558</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04216683457867102</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02787619297076654</v>
+        <v>0.02621628360097174</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06498300505567882</v>
+        <v>0.06310503036544184</v>
       </c>
     </row>
     <row r="19">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4970</v>
+        <v>5453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005223014553328282</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02916855000021199</v>
+        <v>0.03200421914328371</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6658</v>
+        <v>6619</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006720748208651724</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0235946954709804</v>
+        <v>0.02345669552125818</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1822,19 +1822,19 @@
         <v>2786</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7545</v>
+        <v>7488</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006156881467528356</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001939713232060319</v>
+        <v>0.001928244830324359</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01667257047353399</v>
+        <v>0.01654732829032956</v>
       </c>
     </row>
     <row r="20">
@@ -1855,19 +1855,19 @@
         <v>11056</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5320</v>
+        <v>5393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20917</v>
+        <v>20480</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01765571628604829</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008495247021382969</v>
+        <v>0.008612073867771745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03340353868922658</v>
+        <v>0.03270489087822527</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1876,19 +1876,19 @@
         <v>17725</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10203</v>
+        <v>10287</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28842</v>
+        <v>28951</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01762263439399746</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01014406286268207</v>
+        <v>0.01022745839017606</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02867513657975724</v>
+        <v>0.02878387025312814</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -1897,19 +1897,19 @@
         <v>28781</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18929</v>
+        <v>19157</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42768</v>
+        <v>42959</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0176353277792307</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.011598361441671</v>
+        <v>0.01173832180378101</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02620553226928697</v>
+        <v>0.0263228969908688</v>
       </c>
     </row>
     <row r="21">
@@ -1926,19 +1926,19 @@
         <v>561879</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>545427</v>
+        <v>545751</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>576993</v>
+        <v>577100</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8972924733567382</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8710199830183961</v>
+        <v>0.8715370712004039</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9214278025702569</v>
+        <v>0.9215998111948164</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>886</v>
@@ -1947,19 +1947,19 @@
         <v>922050</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>903559</v>
+        <v>903148</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>937460</v>
+        <v>938290</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.9167216021701596</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8983379238570088</v>
+        <v>0.8979296298487783</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9320433876119304</v>
+        <v>0.932868487000294</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1426</v>
@@ -1968,19 +1968,19 @@
         <v>1483929</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1457708</v>
+        <v>1458908</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1507695</v>
+        <v>1505162</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.9092667257563206</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8931998794229092</v>
+        <v>0.8939354388389453</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9238293545873003</v>
+        <v>0.9222774737741575</v>
       </c>
     </row>
     <row r="22">
@@ -1997,19 +1997,19 @@
         <v>51400</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38676</v>
+        <v>39075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65531</v>
+        <v>67823</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08208325448973298</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06176424516246202</v>
+        <v>0.06240109203997404</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1046491827477116</v>
+        <v>0.1083105060843207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -2018,19 +2018,19 @@
         <v>61201</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>48165</v>
+        <v>47613</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76852</v>
+        <v>76606</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06084694943572775</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04788630607533822</v>
+        <v>0.04733749628881735</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0764077292563486</v>
+        <v>0.07616288242905106</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>111</v>
@@ -2039,19 +2039,19 @@
         <v>112601</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>94037</v>
+        <v>93294</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135653</v>
+        <v>134579</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06899523190297009</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05762032612183245</v>
+        <v>0.05716497346117174</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08312023278935055</v>
+        <v>0.08246241397212378</v>
       </c>
     </row>
     <row r="23">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6508</v>
+        <v>6600</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002968555867480471</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01039314820472961</v>
+        <v>0.01053968890093346</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2089,19 +2089,19 @@
         <v>4837</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1772</v>
+        <v>1911</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9908</v>
+        <v>10670</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004808814000115176</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001761268741060632</v>
+        <v>0.001899991984689383</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.009851092737194212</v>
+        <v>0.01060847905840618</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2110,19 +2110,19 @@
         <v>6696</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2865</v>
+        <v>2885</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12845</v>
+        <v>13286</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004102714561478631</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001755438458592013</v>
+        <v>0.001767889432909527</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.007870836259469298</v>
+        <v>0.008140777059497591</v>
       </c>
     </row>
     <row r="24">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7343</v>
+        <v>7956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01114967709880329</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03693937322803483</v>
+        <v>0.04002698805387456</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2404,19 +2404,19 @@
         <v>5674</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2077</v>
+        <v>1935</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13303</v>
+        <v>12168</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01901450847663954</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006960238607974406</v>
+        <v>0.006483113671163536</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04458062281194805</v>
+        <v>0.04077776737491511</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2425,19 +2425,19 @@
         <v>7890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3203</v>
+        <v>3336</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16031</v>
+        <v>15128</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01587002771882725</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006441845907531655</v>
+        <v>0.006709139207978067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03224401146169829</v>
+        <v>0.03042920028217123</v>
       </c>
     </row>
     <row r="5">
@@ -2454,19 +2454,19 @@
         <v>182592</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>174043</v>
+        <v>172708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189315</v>
+        <v>188777</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9185866529005712</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8755792621437736</v>
+        <v>0.8688624376955775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9524091405298504</v>
+        <v>0.9496995780965669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -2475,19 +2475,19 @@
         <v>266932</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253917</v>
+        <v>255240</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276431</v>
+        <v>277601</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8945636330530745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.850947615351166</v>
+        <v>0.855380929528223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9264006768732969</v>
+        <v>0.9303199938534398</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>422</v>
@@ -2496,19 +2496,19 @@
         <v>449524</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>433295</v>
+        <v>435222</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>462076</v>
+        <v>461142</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.904168406509232</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8715266961889961</v>
+        <v>0.87540224464561</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.929415483813784</v>
+        <v>0.9275370863178899</v>
       </c>
     </row>
     <row r="6">
@@ -2525,19 +2525,19 @@
         <v>8941</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3938</v>
+        <v>4065</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16464</v>
+        <v>17650</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04497838191316604</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0198122596772036</v>
+        <v>0.02045020095822313</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08282535773804346</v>
+        <v>0.08879403778954065</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -2546,19 +2546,19 @@
         <v>21822</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13873</v>
+        <v>13877</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31862</v>
+        <v>33150</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07313287399303714</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04649311744744986</v>
+        <v>0.04650577529936847</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1067800658635134</v>
+        <v>0.1110946444237526</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -2567,19 +2567,19 @@
         <v>30763</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21666</v>
+        <v>21662</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45038</v>
+        <v>43122</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06187627428504828</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04357957834974067</v>
+        <v>0.04357086278570969</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09058933919440279</v>
+        <v>0.08673626283734098</v>
       </c>
     </row>
     <row r="7">
@@ -2596,19 +2596,19 @@
         <v>5026</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1882</v>
+        <v>1900</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10984</v>
+        <v>10352</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02528528808745949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0094692771536593</v>
+        <v>0.009559470643156237</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05525772277512854</v>
+        <v>0.05207980265272314</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2617,19 +2617,19 @@
         <v>4962</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1963</v>
+        <v>1941</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10990</v>
+        <v>10704</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01662855977083872</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006577025612825521</v>
+        <v>0.006503882820198758</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03683132992814174</v>
+        <v>0.03587255776900472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2638,19 +2638,19 @@
         <v>9988</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4975</v>
+        <v>4858</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17982</v>
+        <v>18024</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02008965312548248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01000666124048616</v>
+        <v>0.009772301663339989</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03616908414289284</v>
+        <v>0.03625338753584428</v>
       </c>
     </row>
     <row r="8">
@@ -2671,19 +2671,19 @@
         <v>3832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9581</v>
+        <v>9676</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01261710700607951</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003193552458571796</v>
+        <v>0.003158956127906863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03154923947514546</v>
+        <v>0.03186192252443979</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -2692,19 +2692,19 @@
         <v>4191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12717</v>
+        <v>12981</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009154288025558292</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002433879167214216</v>
+        <v>0.002428055714064926</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02777447251424212</v>
+        <v>0.02835206239648203</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -2713,19 +2713,19 @@
         <v>8023</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3040</v>
+        <v>2979</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16654</v>
+        <v>15989</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01053514857623841</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003992149441666797</v>
+        <v>0.003911186371957945</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02186825311358285</v>
+        <v>0.0209960433537174</v>
       </c>
     </row>
     <row r="9">
@@ -2742,19 +2742,19 @@
         <v>282983</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>273360</v>
+        <v>272526</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>290958</v>
+        <v>290660</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9318507369268567</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9001633340494725</v>
+        <v>0.8974172322094653</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9581139043725069</v>
+        <v>0.9571322130074078</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>378</v>
@@ -2763,19 +2763,19 @@
         <v>419181</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>405472</v>
+        <v>405375</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>430520</v>
+        <v>429542</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9155167112575264</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8855748838773292</v>
+        <v>0.8853633471528657</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9402815009873944</v>
+        <v>0.9381454831620116</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>642</v>
@@ -2784,19 +2784,19 @@
         <v>702164</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>686664</v>
+        <v>687262</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>717443</v>
+        <v>715850</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9220301940030725</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9016765108088788</v>
+        <v>0.9024622602907996</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9420935263262228</v>
+        <v>0.9400025287689456</v>
       </c>
     </row>
     <row r="10">
@@ -2813,19 +2813,19 @@
         <v>12428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6826</v>
+        <v>6375</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20884</v>
+        <v>21504</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04092529746996065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02247686027523793</v>
+        <v>0.02099128503922758</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06877106328970123</v>
+        <v>0.07081344696091288</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -2834,19 +2834,19 @@
         <v>26178</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17694</v>
+        <v>18140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38211</v>
+        <v>38675</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05717325277955135</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03864435071069674</v>
+        <v>0.03961961735263324</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08345408853709214</v>
+        <v>0.08446833526957598</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -2855,19 +2855,19 @@
         <v>38606</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26685</v>
+        <v>28280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51004</v>
+        <v>52103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05069409211812678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03504117968996823</v>
+        <v>0.03713576197035847</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06697442274970516</v>
+        <v>0.06841827549187157</v>
       </c>
     </row>
     <row r="11">
@@ -2884,19 +2884,19 @@
         <v>4436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1120</v>
+        <v>1131</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11019</v>
+        <v>11150</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01460685859710312</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003687529812616311</v>
+        <v>0.003722761649857813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03628586116460197</v>
+        <v>0.03671753741193836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -2905,19 +2905,19 @@
         <v>8313</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4108</v>
+        <v>3248</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15975</v>
+        <v>15770</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01815574793736398</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008971247635143663</v>
+        <v>0.007093689703757696</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03488966924077228</v>
+        <v>0.03444267442926083</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -2926,19 +2926,19 @@
         <v>12749</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6412</v>
+        <v>6511</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22189</v>
+        <v>21498</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01674056530256226</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008419507572882642</v>
+        <v>0.008549390250580354</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02913741023705983</v>
+        <v>0.02822900364425139</v>
       </c>
     </row>
     <row r="12">
@@ -2959,19 +2959,19 @@
         <v>4848</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11917</v>
+        <v>11922</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0219664792286586</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004559955666527536</v>
+        <v>0.004484257642164187</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05399692667443538</v>
+        <v>0.05401987912010345</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -2980,19 +2980,19 @@
         <v>6025</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14001</v>
+        <v>13512</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01698956226466514</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00591850111910786</v>
+        <v>0.005930598333165733</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03948191599687956</v>
+        <v>0.03810180874935466</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -3001,19 +3001,19 @@
         <v>10873</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5588</v>
+        <v>5205</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20790</v>
+        <v>20636</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01889872331527345</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009712831271232798</v>
+        <v>0.009046904467835574</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03613577174660138</v>
+        <v>0.03586830187350897</v>
       </c>
     </row>
     <row r="13">
@@ -3030,19 +3030,19 @@
         <v>203229</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>193589</v>
+        <v>193351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210338</v>
+        <v>209929</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9208530046662354</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8771732121411426</v>
+        <v>0.8760978634228705</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9530661736582077</v>
+        <v>0.9512132096821738</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>306</v>
@@ -3051,19 +3051,19 @@
         <v>334074</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>324547</v>
+        <v>323959</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>342178</v>
+        <v>341849</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9420408674533283</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9151758109705506</v>
+        <v>0.9135179361326128</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9648940236847744</v>
+        <v>0.963964392420055</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>493</v>
@@ -3072,19 +3072,19 @@
         <v>537303</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>523391</v>
+        <v>523252</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>547678</v>
+        <v>547256</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9339131364360334</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9097329351965088</v>
+        <v>0.9094913687053934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9519469709612892</v>
+        <v>0.9512128030025147</v>
       </c>
     </row>
     <row r="14">
@@ -3101,19 +3101,19 @@
         <v>10583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5622</v>
+        <v>5615</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17892</v>
+        <v>18051</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04795393871270053</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02547543628186892</v>
+        <v>0.02544072928882327</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08107082468372595</v>
+        <v>0.08179057960184484</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -3122,19 +3122,19 @@
         <v>13420</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7353</v>
+        <v>7517</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22065</v>
+        <v>21682</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03784349089415237</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02073305720844061</v>
+        <v>0.0211959161976676</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06221998243836411</v>
+        <v>0.06114127523980802</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -3143,19 +3143,19 @@
         <v>24004</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15544</v>
+        <v>15935</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34476</v>
+        <v>34925</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04172189057793806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02701802388832026</v>
+        <v>0.02769827067580494</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05992481746943566</v>
+        <v>0.06070440916964128</v>
       </c>
     </row>
     <row r="15">
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7010</v>
+        <v>7162</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.009226577392405497</v>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03176145644997947</v>
+        <v>0.03245252593305292</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5547</v>
+        <v>7194</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.003126079387854181</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01564306137783699</v>
+        <v>0.02028507481214153</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -3214,19 +3214,19 @@
         <v>3145</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8509</v>
+        <v>8381</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005466249670755119</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001702613233822097</v>
+        <v>0.001699608058010562</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01479060816775572</v>
+        <v>0.0145679140591566</v>
       </c>
     </row>
     <row r="16">
@@ -3247,19 +3247,19 @@
         <v>5805</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1962</v>
+        <v>1930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15117</v>
+        <v>14397</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0221849435473917</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007497413705445599</v>
+        <v>0.007377582857873221</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05777628275178007</v>
+        <v>0.05502120806650087</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3268,19 +3268,19 @@
         <v>12729</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6814</v>
+        <v>6923</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21912</v>
+        <v>21963</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03135163504204248</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01678305839924343</v>
+        <v>0.01705094787926249</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05396950518322792</v>
+        <v>0.05409335948827276</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3289,19 +3289,19 @@
         <v>18534</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10723</v>
+        <v>11628</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29561</v>
+        <v>30426</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02775927264371638</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01606045396618629</v>
+        <v>0.01741523864975601</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04427462671510098</v>
+        <v>0.04557095126408109</v>
       </c>
     </row>
     <row r="17">
@@ -3318,19 +3318,19 @@
         <v>231784</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>220275</v>
+        <v>219389</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>241432</v>
+        <v>241222</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8858369992463864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8418532893723061</v>
+        <v>0.8384654502990571</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9227107611211398</v>
+        <v>0.9219102959211405</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>354</v>
@@ -3339,19 +3339,19 @@
         <v>369928</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>356145</v>
+        <v>356959</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>380499</v>
+        <v>380567</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9111210908780304</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8771746009671025</v>
+        <v>0.8791791492109816</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9371563672631842</v>
+        <v>0.9373259652069628</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>579</v>
@@ -3360,19 +3360,19 @@
         <v>601712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>583886</v>
+        <v>584895</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>615562</v>
+        <v>616340</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9012124318917044</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8745144992320287</v>
+        <v>0.8760253785460941</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9219570116301612</v>
+        <v>0.9231219867205342</v>
       </c>
     </row>
     <row r="18">
@@ -3389,19 +3389,19 @@
         <v>19324</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11562</v>
+        <v>11667</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30637</v>
+        <v>29009</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07385136608090548</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04418738907159927</v>
+        <v>0.04459046733331003</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1170883381844454</v>
+        <v>0.1108665621880621</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -3410,19 +3410,19 @@
         <v>19142</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11657</v>
+        <v>11572</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29770</v>
+        <v>29245</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0471462894146344</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0287099297211493</v>
+        <v>0.02850069362754188</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07332277108375654</v>
+        <v>0.07203031621808174</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>38</v>
@@ -3431,19 +3431,19 @@
         <v>38466</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27965</v>
+        <v>27571</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>53728</v>
+        <v>53569</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05761182251524222</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04188430549080319</v>
+        <v>0.04129478987813758</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08047033488704429</v>
+        <v>0.08023307860559491</v>
       </c>
     </row>
     <row r="19">
@@ -3460,19 +3460,19 @@
         <v>4743</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1810</v>
+        <v>1836</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10201</v>
+        <v>10576</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01812669112531644</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0069182393534039</v>
+        <v>0.007018610796388386</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03898548640891111</v>
+        <v>0.04041840362744717</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3481,19 +3481,19 @@
         <v>5291</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2062</v>
+        <v>2068</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11792</v>
+        <v>10797</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01303246125723265</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005079666855149105</v>
+        <v>0.005092206157761368</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02904390129485554</v>
+        <v>0.02659282777365111</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -3502,19 +3502,19 @@
         <v>10034</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4976</v>
+        <v>4804</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16758</v>
+        <v>17479</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01502885437651817</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007452175134264275</v>
+        <v>0.007195737564088047</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02509913453263664</v>
+        <v>0.02617918106681115</v>
       </c>
     </row>
     <row r="20">
@@ -3535,19 +3535,19 @@
         <v>16701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9610</v>
+        <v>9707</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26567</v>
+        <v>27405</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01695822363507884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00975808502566191</v>
+        <v>0.009856341343384256</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02697739162228813</v>
+        <v>0.02782786998637292</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -3556,19 +3556,19 @@
         <v>28619</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19322</v>
+        <v>18823</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44270</v>
+        <v>40542</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01886704668329083</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01273817289822906</v>
+        <v>0.0124087449516218</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02918461469402468</v>
+        <v>0.02672692800416068</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -3577,19 +3577,19 @@
         <v>45320</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32397</v>
+        <v>32334</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>60039</v>
+        <v>62150</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01811563135400676</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01295007627918228</v>
+        <v>0.01292480200772786</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02399932860244533</v>
+        <v>0.0248431160519951</v>
       </c>
     </row>
     <row r="21">
@@ -3606,19 +3606,19 @@
         <v>900587</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>880117</v>
+        <v>879626</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>916121</v>
+        <v>917096</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.914483382701484</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8936977993490172</v>
+        <v>0.8931986298003862</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9302573624778274</v>
+        <v>0.9312473656130823</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1286</v>
@@ -3627,19 +3627,19 @@
         <v>1390114</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1366203</v>
+        <v>1367235</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1409554</v>
+        <v>1411652</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.9164193912481641</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.9006565311358972</v>
+        <v>0.9013368152973624</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9292349408907533</v>
+        <v>0.9306179494005015</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2136</v>
@@ -3648,19 +3648,19 @@
         <v>2290701</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2259532</v>
+        <v>2261907</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2316517</v>
+        <v>2317549</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.9156572742457719</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.9031981677768497</v>
+        <v>0.9041474519593994</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9259768071301965</v>
+        <v>0.9263892854910537</v>
       </c>
     </row>
     <row r="22">
@@ -3677,19 +3677,19 @@
         <v>51276</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38570</v>
+        <v>38421</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67300</v>
+        <v>67618</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05206670902568295</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0391650301272831</v>
+        <v>0.03901398668467522</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06833876698288469</v>
+        <v>0.06866112221155705</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -3698,19 +3698,19 @@
         <v>80562</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64478</v>
+        <v>62784</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101029</v>
+        <v>98187</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05310987740647508</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04250676692261318</v>
+        <v>0.04138943215534679</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06660233001372862</v>
+        <v>0.06472876826167703</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -3719,19 +3719,19 @@
         <v>131838</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>111535</v>
+        <v>111848</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157603</v>
+        <v>157537</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05269923027337079</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04458375687105001</v>
+        <v>0.04470865904178326</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06299831746736763</v>
+        <v>0.06297178081527088</v>
       </c>
     </row>
     <row r="23">
@@ -3748,19 +3748,19 @@
         <v>16241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9913</v>
+        <v>9057</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25918</v>
+        <v>24990</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01649168463775417</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0100660190429704</v>
+        <v>0.009196313508883336</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02631763733475535</v>
+        <v>0.02537517110093993</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -3769,19 +3769,19 @@
         <v>19675</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12175</v>
+        <v>12007</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30540</v>
+        <v>29967</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01297031741754995</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.008026581859252769</v>
+        <v>0.007915360548296838</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02013321940018996</v>
+        <v>0.01975548935035923</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>35</v>
@@ -3790,19 +3790,19 @@
         <v>35916</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>25626</v>
+        <v>25291</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>48249</v>
+        <v>47913</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01435651678882139</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.010243524298442</v>
+        <v>0.01010954617822022</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01928663693789436</v>
+        <v>0.01915232417262015</v>
       </c>
     </row>
     <row r="24">
@@ -4063,19 +4063,19 @@
         <v>7085</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2978</v>
+        <v>3034</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13597</v>
+        <v>13844</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04417522655210017</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01856663548088203</v>
+        <v>0.01891458852119618</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08477480670258336</v>
+        <v>0.08631374336911096</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6482</v>
+        <v>6736</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009396327019026851</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03293577931653965</v>
+        <v>0.03422648538947527</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4105,19 +4105,19 @@
         <v>8935</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4000</v>
+        <v>3947</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16129</v>
+        <v>15878</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02501234772055645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01119688640093619</v>
+        <v>0.01104918513058083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04515291998353807</v>
+        <v>0.04444991595082065</v>
       </c>
     </row>
     <row r="5">
@@ -4134,19 +4134,19 @@
         <v>140193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>130217</v>
+        <v>130470</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147182</v>
+        <v>147241</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8740690747428598</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.81187150169629</v>
+        <v>0.813450400550936</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9176478272097949</v>
+        <v>0.9180154966130358</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>179</v>
@@ -4155,19 +4155,19 @@
         <v>177738</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>167937</v>
+        <v>168318</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185130</v>
+        <v>184704</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9030436119072308</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8532469355361836</v>
+        <v>0.8551825331550251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9406005558773242</v>
+        <v>0.9384361021360206</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>309</v>
@@ -4176,19 +4176,19 @@
         <v>317931</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>305281</v>
+        <v>306123</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>327857</v>
+        <v>329065</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8900337991112343</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8546212165575559</v>
+        <v>0.8569798331078312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9178228096278491</v>
+        <v>0.9212042054665109</v>
       </c>
     </row>
     <row r="6">
@@ -4205,19 +4205,19 @@
         <v>10171</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5881</v>
+        <v>5290</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18134</v>
+        <v>18148</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0634135651284824</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03666956617497727</v>
+        <v>0.03298157634109419</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1130621093727192</v>
+        <v>0.113146838911546</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -4226,19 +4226,19 @@
         <v>15347</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9166</v>
+        <v>9295</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24262</v>
+        <v>24195</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07797239267447327</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0465720608958381</v>
+        <v>0.0472252962655525</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1232675625519015</v>
+        <v>0.1229300991729821</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -4247,19 +4247,19 @@
         <v>25518</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17042</v>
+        <v>16601</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36482</v>
+        <v>35519</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07143535569514069</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04770738629698244</v>
+        <v>0.04647402381559042</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1021285076993079</v>
+        <v>0.0994334040832707</v>
       </c>
     </row>
     <row r="7">
@@ -4276,19 +4276,19 @@
         <v>4042</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1077</v>
+        <v>1104</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9877</v>
+        <v>10562</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02519870275457525</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006713835143343934</v>
+        <v>0.006885055023966943</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06157976333210202</v>
+        <v>0.06585464401371034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6526</v>
+        <v>5714</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009587668399269035</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03315895875736834</v>
+        <v>0.02903320742959019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -4318,19 +4318,19 @@
         <v>5929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2189</v>
+        <v>2083</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11961</v>
+        <v>12274</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01659715515525235</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00612701407089692</v>
+        <v>0.005831578393629864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03348440198482905</v>
+        <v>0.03436099790719779</v>
       </c>
     </row>
     <row r="8">
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9143</v>
+        <v>9626</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01103378381206499</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03844616295875784</v>
+        <v>0.04047537328865899</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -4372,19 +4372,19 @@
         <v>5444</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2065</v>
+        <v>2104</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12785</v>
+        <v>12117</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01520075449814735</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005766404213432916</v>
+        <v>0.005875843842927659</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03569783393390309</v>
+        <v>0.03383301009908882</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -4393,19 +4393,19 @@
         <v>8068</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4118</v>
+        <v>3654</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17286</v>
+        <v>17150</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01353789908168809</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006910608836362625</v>
+        <v>0.006131452074271053</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02900620814308722</v>
+        <v>0.02877722049057169</v>
       </c>
     </row>
     <row r="9">
@@ -4422,19 +4422,19 @@
         <v>225315</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>216462</v>
+        <v>215941</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>230813</v>
+        <v>231151</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9474167851132688</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9101931701740779</v>
+        <v>0.908000098504063</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9705375336754285</v>
+        <v>0.9719559837465969</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>310</v>
@@ -4443,19 +4443,19 @@
         <v>317523</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>303787</v>
+        <v>305002</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>328377</v>
+        <v>328502</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8865986766401521</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8482454653429027</v>
+        <v>0.8516361794794008</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9169047251896472</v>
+        <v>0.9172561334564112</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>518</v>
@@ -4464,19 +4464,19 @@
         <v>542837</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>526684</v>
+        <v>527385</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>554114</v>
+        <v>556746</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9108685188617709</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8837647167641554</v>
+        <v>0.8849401536317734</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9297912411845635</v>
+        <v>0.9342081943576788</v>
       </c>
     </row>
     <row r="10">
@@ -4493,19 +4493,19 @@
         <v>7980</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3963</v>
+        <v>3786</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14921</v>
+        <v>15742</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03355661143312447</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01666279610189643</v>
+        <v>0.01591942866894707</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06274118816018166</v>
+        <v>0.06619097833288641</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -4514,19 +4514,19 @@
         <v>31776</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22189</v>
+        <v>22306</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44240</v>
+        <v>44268</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08872583856367446</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06195682044657879</v>
+        <v>0.06228236589851624</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1235284725535989</v>
+        <v>0.1236064418882988</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -4535,19 +4535,19 @@
         <v>39756</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29540</v>
+        <v>28131</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53938</v>
+        <v>53566</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06671021736856694</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04956667057872878</v>
+        <v>0.04720376273500687</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09050674405345643</v>
+        <v>0.08988185045532289</v>
       </c>
     </row>
     <row r="11">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7854</v>
+        <v>6774</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007992819641541731</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03302331646593164</v>
+        <v>0.02848249285733351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -4585,19 +4585,19 @@
         <v>3393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9013</v>
+        <v>9470</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009474730298026073</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00266537728091442</v>
+        <v>0.002664955364475333</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02516580524754701</v>
+        <v>0.02644222832445321</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -4606,19 +4606,19 @@
         <v>5294</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1955</v>
+        <v>1984</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11782</v>
+        <v>12309</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008883364687974122</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003281057153758953</v>
+        <v>0.003329317891369325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01976918214320942</v>
+        <v>0.02065416416324163</v>
       </c>
     </row>
     <row r="12">
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7346</v>
+        <v>7317</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0128049261606749</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04479072901707761</v>
+        <v>0.04461568528004681</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4660,19 +4660,19 @@
         <v>6526</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1985</v>
+        <v>2265</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13590</v>
+        <v>13475</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0257099575552682</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00782145102830187</v>
+        <v>0.008921000947659852</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05353710361825632</v>
+        <v>0.05308266505403034</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -4681,19 +4681,19 @@
         <v>8626</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3996</v>
+        <v>3945</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15780</v>
+        <v>16127</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02064469062457605</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009562767697487276</v>
+        <v>0.009442174571724636</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03776578248995355</v>
+        <v>0.03859665282941995</v>
       </c>
     </row>
     <row r="13">
@@ -4710,19 +4710,19 @@
         <v>151112</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>141999</v>
+        <v>142954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156460</v>
+        <v>157309</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9213811771884959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8658146034448658</v>
+        <v>0.8716375475006556</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9539925134274675</v>
+        <v>0.9591681732695593</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>219</v>
@@ -4731,19 +4731,19 @@
         <v>225177</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>213178</v>
+        <v>214111</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>233963</v>
+        <v>234677</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8870827991451369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8398118662369333</v>
+        <v>0.8434873244789127</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9216935908013476</v>
+        <v>0.9245061677053584</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>360</v>
@@ -4752,19 +4752,19 @@
         <v>376288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>363213</v>
+        <v>362974</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>387476</v>
+        <v>387897</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9005450244406282</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8692530624709679</v>
+        <v>0.868680571576768</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9273192120584537</v>
+        <v>0.9283276097050516</v>
       </c>
     </row>
     <row r="14">
@@ -4781,19 +4781,19 @@
         <v>7297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3101</v>
+        <v>3126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14441</v>
+        <v>14144</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04449312588583834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0189067666769857</v>
+        <v>0.01905932735847067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08805155678977139</v>
+        <v>0.08624244436325841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -4802,19 +4802,19 @@
         <v>22137</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14598</v>
+        <v>14753</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33129</v>
+        <v>32577</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08720724329959488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05750962084484904</v>
+        <v>0.0581185286626</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1305100857630077</v>
+        <v>0.1283362842635474</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -4823,19 +4823,19 @@
         <v>29434</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19841</v>
+        <v>20305</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41570</v>
+        <v>41275</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07044181284118868</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04748417937242779</v>
+        <v>0.04859460754096186</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09948702329744517</v>
+        <v>0.09878142840245133</v>
       </c>
     </row>
     <row r="15">
@@ -4852,19 +4852,19 @@
         <v>3497</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9337</v>
+        <v>9160</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02132077076499087</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.006190943268919324</v>
+        <v>0.006136042414574656</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05692846185548624</v>
+        <v>0.05585459925336833</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4886,19 +4886,19 @@
         <v>3497</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9323</v>
+        <v>9791</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.008368472093606999</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0</v>
+        <v>0.002448959886531791</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02231106786957463</v>
+        <v>0.02343155853304782</v>
       </c>
     </row>
     <row r="16">
@@ -4919,19 +4919,19 @@
         <v>5809</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2050</v>
+        <v>2099</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11980</v>
+        <v>11669</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02987294059458109</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01054041323523477</v>
+        <v>0.01079575270617119</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06160802456266162</v>
+        <v>0.06001077966179105</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4940,19 +4940,19 @@
         <v>8720</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4192</v>
+        <v>4107</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17938</v>
+        <v>16314</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02885461271204319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01387077203433282</v>
+        <v>0.01359115199944235</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05936009712289812</v>
+        <v>0.05398661386201836</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -4961,19 +4961,19 @@
         <v>14528</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8835</v>
+        <v>7893</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23503</v>
+        <v>23313</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02925332316731877</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01779039514202323</v>
+        <v>0.01589332249259704</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04732438335140714</v>
+        <v>0.04694177983825744</v>
       </c>
     </row>
     <row r="17">
@@ -4990,19 +4990,19 @@
         <v>175031</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>165622</v>
+        <v>164864</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182530</v>
+        <v>181670</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9001313474865188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8517395144025747</v>
+        <v>0.8478435232962193</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9386950697417098</v>
+        <v>0.9342692065935865</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>244</v>
@@ -5011,19 +5011,19 @@
         <v>253845</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>240592</v>
+        <v>238946</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>266919</v>
+        <v>265636</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8400241397417637</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7961674956501101</v>
+        <v>0.7907188295910199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8832889448552868</v>
+        <v>0.879043367336974</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>417</v>
@@ -5032,19 +5032,19 @@
         <v>428877</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>412604</v>
+        <v>410977</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>444480</v>
+        <v>442008</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.863558182731462</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8307927437124565</v>
+        <v>0.8275157618899844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8949767064922183</v>
+        <v>0.8899992307059111</v>
       </c>
     </row>
     <row r="18">
@@ -5061,19 +5061,19 @@
         <v>13647</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7314</v>
+        <v>8026</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21904</v>
+        <v>22086</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07018053160896394</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03761498423851277</v>
+        <v>0.04127271632297605</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1126436241594396</v>
+        <v>0.1135823213756297</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -5082,19 +5082,19 @@
         <v>35388</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25121</v>
+        <v>25585</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47069</v>
+        <v>48197</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1171053853711321</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0831319992922418</v>
+        <v>0.08466476078065151</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1557604479825578</v>
+        <v>0.1594926535117554</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -5103,19 +5103,19 @@
         <v>49035</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>35315</v>
+        <v>35821</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>63583</v>
+        <v>64095</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09873268819954312</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07110822592696209</v>
+        <v>0.07212641302868736</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1280259226132463</v>
+        <v>0.1290566424304365</v>
       </c>
     </row>
     <row r="19">
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5634</v>
+        <v>5036</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005144238700313375</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02897546987136784</v>
+        <v>0.02589842271049989</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -5153,19 +5153,19 @@
         <v>5255</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1967</v>
+        <v>2072</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11692</v>
+        <v>11922</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0173906263860434</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006508304007831631</v>
+        <v>0.006855896599856558</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03869230672705957</v>
+        <v>0.03945320273249113</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -5174,19 +5174,19 @@
         <v>6256</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2252</v>
+        <v>2179</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13270</v>
+        <v>13275</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01259574362442266</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004534176077746543</v>
+        <v>0.004388192556531645</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02672036040368914</v>
+        <v>0.02673030495652648</v>
       </c>
     </row>
     <row r="20">
@@ -5207,19 +5207,19 @@
         <v>17618</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10465</v>
+        <v>10768</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27832</v>
+        <v>27826</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02328403183368698</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01382992081206635</v>
+        <v>0.01423062128688245</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03678226731994452</v>
+        <v>0.03677431033770811</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -5228,19 +5228,19 @@
         <v>22539</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13955</v>
+        <v>14363</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35003</v>
+        <v>33846</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0202874622297828</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01256062562535054</v>
+        <v>0.01292774132032781</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03150654271741368</v>
+        <v>0.03046447324392034</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -5249,19 +5249,19 @@
         <v>40157</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28684</v>
+        <v>28037</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55620</v>
+        <v>54522</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0215015043184581</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01535820840389223</v>
+        <v>0.01501167811580892</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02978062872938546</v>
+        <v>0.02919271787552177</v>
       </c>
     </row>
     <row r="21">
@@ -5278,19 +5278,19 @@
         <v>691650</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>675533</v>
+        <v>675585</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>707124</v>
+        <v>706225</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.9140745167195761</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8927742835642811</v>
+        <v>0.8928430151555935</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9345250465738693</v>
+        <v>0.9333362902076244</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>952</v>
@@ -5299,19 +5299,19 @@
         <v>974281</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>949728</v>
+        <v>951573</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>995864</v>
+        <v>996567</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8769543746595749</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8548539657877792</v>
+        <v>0.8565147581687871</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8963810668211033</v>
+        <v>0.8970140388982013</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1604</v>
@@ -5320,19 +5320,19 @@
         <v>1665932</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1637930</v>
+        <v>1635951</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1692608</v>
+        <v>1691714</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8919933761697458</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8769999626247312</v>
+        <v>0.875940457874665</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.906276224755095</v>
+        <v>0.9057977609822012</v>
       </c>
     </row>
     <row r="22">
@@ -5349,19 +5349,19 @@
         <v>39095</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28279</v>
+        <v>27731</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51719</v>
+        <v>52872</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05166760908736998</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03737351098629013</v>
+        <v>0.03664899180784512</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06835132245620834</v>
+        <v>0.06987524625184713</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>100</v>
@@ -5370,19 +5370,19 @@
         <v>104647</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85205</v>
+        <v>87318</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>126663</v>
+        <v>127213</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09419304000257224</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07669328221031403</v>
+        <v>0.07859561877848308</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1140096308811253</v>
+        <v>0.114505053730915</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -5391,19 +5391,19 @@
         <v>143742</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121581</v>
+        <v>122067</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>168694</v>
+        <v>169550</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07696411833733068</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06509827507816755</v>
+        <v>0.06535864292016802</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09032429542492347</v>
+        <v>0.09078226656608492</v>
       </c>
     </row>
     <row r="23">
@@ -5420,19 +5420,19 @@
         <v>10440</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5731</v>
+        <v>5091</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19710</v>
+        <v>17869</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01379671260441581</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007573964417279927</v>
+        <v>0.006727591635546009</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02604876820563551</v>
+        <v>0.02361525492487175</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -5441,19 +5441,19 @@
         <v>10536</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5216</v>
+        <v>5148</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18758</v>
+        <v>17985</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009483059478946494</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004694900021760999</v>
+        <v>0.004633331194513062</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01688407625455432</v>
+        <v>0.0161882239487185</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -5462,19 +5462,19 @@
         <v>20975</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12704</v>
+        <v>13000</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32170</v>
+        <v>31559</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01123071000688428</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006802257505784819</v>
+        <v>0.006960423582459529</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01722464321052957</v>
+        <v>0.01689773542554711</v>
       </c>
     </row>
     <row r="24">
